--- a/xls/coded_subject_terms.xlsx
+++ b/xls/coded_subject_terms.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nfoasberg\Desktop\ProjectTRIKE\American_Literature\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nfoasberg\Desktop\ProjectTRIKE\Son_of_Am_Lit\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1124,7 +1124,7 @@
   <dimension ref="A1:C322"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E251" sqref="E251"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/xls/coded_subject_terms.xlsx
+++ b/xls/coded_subject_terms.xlsx
@@ -1067,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C239"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C239"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62:C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2065,10 +2065,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>76</v>
+        <v>160</v>
       </c>
       <c r="B91">
-        <v>2010</v>
+        <v>1980</v>
       </c>
       <c r="C91" t="s">
         <v>231</v>
@@ -2076,10 +2076,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="B92">
-        <v>1980</v>
+        <v>2010</v>
       </c>
       <c r="C92" t="s">
         <v>231</v>
@@ -2087,7 +2087,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="B93">
         <v>2010</v>
@@ -2098,10 +2098,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>100</v>
+        <v>177</v>
       </c>
       <c r="B94">
-        <v>2010</v>
+        <v>1980</v>
       </c>
       <c r="C94" t="s">
         <v>231</v>
@@ -2109,10 +2109,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>177</v>
+        <v>52</v>
       </c>
       <c r="B95">
-        <v>1980</v>
+        <v>2010</v>
       </c>
       <c r="C95" t="s">
         <v>231</v>
@@ -2120,7 +2120,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="B96">
         <v>2010</v>
@@ -2131,10 +2131,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>6</v>
+        <v>143</v>
       </c>
       <c r="B97">
-        <v>2010</v>
+        <v>1980</v>
       </c>
       <c r="C97" t="s">
         <v>231</v>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>143</v>
+        <v>16</v>
       </c>
       <c r="B98">
-        <v>1980</v>
+        <v>2010</v>
       </c>
       <c r="C98" t="s">
         <v>231</v>
@@ -2153,7 +2153,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B99">
         <v>2010</v>
@@ -2175,7 +2175,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="B101">
         <v>2010</v>
@@ -2186,7 +2186,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="B102">
         <v>2010</v>
@@ -2219,10 +2219,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="B105">
-        <v>2010</v>
+        <v>1980</v>
       </c>
       <c r="C105" t="s">
         <v>231</v>
@@ -2230,7 +2230,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>132</v>
+        <v>176</v>
       </c>
       <c r="B106">
         <v>1980</v>
@@ -2241,10 +2241,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>176</v>
+        <v>212</v>
       </c>
       <c r="B107">
-        <v>1980</v>
+        <v>1950</v>
       </c>
       <c r="C107" t="s">
         <v>231</v>
@@ -2252,10 +2252,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>212</v>
+        <v>17</v>
       </c>
       <c r="B108">
-        <v>1950</v>
+        <v>2010</v>
       </c>
       <c r="C108" t="s">
         <v>231</v>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B109">
         <v>2010</v>
@@ -2274,10 +2274,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>31</v>
+        <v>151</v>
       </c>
       <c r="B110">
-        <v>2010</v>
+        <v>1980</v>
       </c>
       <c r="C110" t="s">
         <v>231</v>
@@ -2285,10 +2285,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>151</v>
+        <v>74</v>
       </c>
       <c r="B111">
-        <v>1980</v>
+        <v>2010</v>
       </c>
       <c r="C111" t="s">
         <v>231</v>
@@ -2296,7 +2296,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="B112">
         <v>2010</v>
@@ -2307,7 +2307,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="B113">
         <v>2010</v>
@@ -2318,10 +2318,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>60</v>
+        <v>192</v>
       </c>
       <c r="B114">
-        <v>2010</v>
+        <v>1950</v>
       </c>
       <c r="C114" t="s">
         <v>231</v>
@@ -2329,10 +2329,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>192</v>
+        <v>89</v>
       </c>
       <c r="B115">
-        <v>1950</v>
+        <v>2010</v>
       </c>
       <c r="C115" t="s">
         <v>231</v>
@@ -2340,7 +2340,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B116">
         <v>2010</v>
@@ -2351,10 +2351,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="B117">
-        <v>2010</v>
+        <v>1980</v>
       </c>
       <c r="C117" t="s">
         <v>231</v>
@@ -2362,10 +2362,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>130</v>
+        <v>33</v>
       </c>
       <c r="B118">
-        <v>1980</v>
+        <v>2010</v>
       </c>
       <c r="C118" t="s">
         <v>231</v>
@@ -2373,7 +2373,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="B119">
         <v>2010</v>
@@ -2384,10 +2384,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>75</v>
+        <v>187</v>
       </c>
       <c r="B120">
-        <v>2010</v>
+        <v>1950</v>
       </c>
       <c r="C120" t="s">
         <v>231</v>
@@ -2395,10 +2395,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>187</v>
+        <v>136</v>
       </c>
       <c r="B121">
-        <v>1950</v>
+        <v>1980</v>
       </c>
       <c r="C121" t="s">
         <v>231</v>
@@ -2406,10 +2406,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="B122">
-        <v>1980</v>
+        <v>2010</v>
       </c>
       <c r="C122" t="s">
         <v>231</v>
@@ -2417,10 +2417,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="B123">
-        <v>2010</v>
+        <v>1980</v>
       </c>
       <c r="C123" t="s">
         <v>231</v>
@@ -2428,7 +2428,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B124">
         <v>1980</v>
@@ -2439,7 +2439,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="B125">
         <v>1980</v>
@@ -2450,10 +2450,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="B126">
-        <v>1980</v>
+        <v>2010</v>
       </c>
       <c r="C126" t="s">
         <v>231</v>
@@ -2461,7 +2461,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="B127">
         <v>2010</v>
@@ -2472,7 +2472,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="B128">
         <v>2010</v>
@@ -2483,7 +2483,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="B129">
         <v>2010</v>
@@ -2494,7 +2494,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="B130">
         <v>2010</v>
@@ -2505,7 +2505,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B131">
         <v>2010</v>
@@ -2516,10 +2516,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>14</v>
+        <v>215</v>
       </c>
       <c r="B132">
-        <v>2010</v>
+        <v>1950</v>
       </c>
       <c r="C132" t="s">
         <v>231</v>
@@ -2527,10 +2527,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>215</v>
+        <v>77</v>
       </c>
       <c r="B133">
-        <v>1950</v>
+        <v>2010</v>
       </c>
       <c r="C133" t="s">
         <v>231</v>
@@ -2538,7 +2538,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="B134">
         <v>2010</v>
@@ -2549,7 +2549,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="B135">
         <v>2010</v>
@@ -2560,10 +2560,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="B136">
-        <v>2010</v>
+        <v>1980</v>
       </c>
       <c r="C136" t="s">
         <v>231</v>
@@ -2571,10 +2571,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="B137">
-        <v>1980</v>
+        <v>2010</v>
       </c>
       <c r="C137" t="s">
         <v>231</v>
@@ -2582,10 +2582,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="B138">
-        <v>2010</v>
+        <v>1980</v>
       </c>
       <c r="C138" t="s">
         <v>231</v>
@@ -2593,7 +2593,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
       <c r="B139">
         <v>1980</v>
@@ -2604,10 +2604,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="B140">
-        <v>1980</v>
+        <v>2010</v>
       </c>
       <c r="C140" t="s">
         <v>231</v>
@@ -2615,10 +2615,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>62</v>
+        <v>173</v>
       </c>
       <c r="B141">
-        <v>2010</v>
+        <v>1980</v>
       </c>
       <c r="C141" t="s">
         <v>231</v>
@@ -2626,7 +2626,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="B142">
         <v>1980</v>
@@ -2637,10 +2637,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>150</v>
+        <v>211</v>
       </c>
       <c r="B143">
-        <v>1980</v>
+        <v>1950</v>
       </c>
       <c r="C143" t="s">
         <v>231</v>
@@ -2648,10 +2648,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>211</v>
+        <v>170</v>
       </c>
       <c r="B144">
-        <v>1950</v>
+        <v>1980</v>
       </c>
       <c r="C144" t="s">
         <v>231</v>
@@ -2659,10 +2659,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>170</v>
+        <v>69</v>
       </c>
       <c r="B145">
-        <v>1980</v>
+        <v>2010</v>
       </c>
       <c r="C145" t="s">
         <v>231</v>
@@ -2670,10 +2670,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>69</v>
+        <v>142</v>
       </c>
       <c r="B146">
-        <v>2010</v>
+        <v>1980</v>
       </c>
       <c r="C146" t="s">
         <v>231</v>
@@ -2681,10 +2681,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
       <c r="B147">
-        <v>1980</v>
+        <v>2010</v>
       </c>
       <c r="C147" t="s">
         <v>231</v>
@@ -2692,7 +2692,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="B148">
         <v>2010</v>
@@ -2703,18 +2703,18 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="B149">
         <v>2010</v>
       </c>
       <c r="C149" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B150">
         <v>2010</v>
@@ -2725,10 +2725,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>19</v>
+        <v>178</v>
       </c>
       <c r="B151">
-        <v>2010</v>
+        <v>1980</v>
       </c>
       <c r="C151" t="s">
         <v>230</v>
@@ -2736,13 +2736,13 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>178</v>
+        <v>76</v>
       </c>
       <c r="B152">
-        <v>1980</v>
+        <v>2010</v>
       </c>
       <c r="C152" t="s">
-        <v>230</v>
+        <v>129</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -3703,6 +3703,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:C239">
+    <sortCondition ref="C72"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>